--- a/src/resources/amazonsearch.xlsx
+++ b/src/resources/amazonsearch.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hüseyin\IdeaProjects\TestNG\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62EE976-5CA6-403C-8B5B-6780751E809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC49B9-6892-48C4-A831-42A440574F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Ekran Resmi Dosya Adı</t>
   </si>
@@ -55,12 +55,64 @@
   </si>
   <si>
     <t>lcd tv</t>
+  </si>
+  <si>
+    <t>microphone</t>
+  </si>
+  <si>
+    <t>1-48 of over 60,000 results for "boots"</t>
+  </si>
+  <si>
+    <t>target/screenShot/amazon/boots.jpeg</t>
+  </si>
+  <si>
+    <t>1-48 of over 6,000 results for "ladies handbags"</t>
+  </si>
+  <si>
+    <t>target/screenShot/amazon/ladies handbags.jpeg</t>
+  </si>
+  <si>
+    <t>1-16 of over 1,000 results for "mobile phone"</t>
+  </si>
+  <si>
+    <t>target/screenShot/amazon/mobile phone.jpeg</t>
+  </si>
+  <si>
+    <t>1-48 of 126 results for "nutella"</t>
+  </si>
+  <si>
+    <t>target/screenShot/amazon/nutella.jpeg</t>
+  </si>
+  <si>
+    <t>1-48 of over 4,000 results for "pencil"</t>
+  </si>
+  <si>
+    <t>target/screenShot/amazon/pencil.jpeg</t>
+  </si>
+  <si>
+    <t>1-16 of over 4,000 results for "laptop"</t>
+  </si>
+  <si>
+    <t>target/screenShot/amazon/laptop.jpeg</t>
+  </si>
+  <si>
+    <t>1-16 of 204 results for "lcd tv"</t>
+  </si>
+  <si>
+    <t>target/screenShot/amazon/lcd tv.jpeg</t>
+  </si>
+  <si>
+    <t>1-48 of over 5,000 results for "microphone"</t>
+  </si>
+  <si>
+    <t>target/screenShot/amazon/microphone.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,17 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.140625"/>
+    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="3" max="3" customWidth="true" width="46.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -412,35 +464,88 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/amazonsearch.xlsx
+++ b/src/resources/amazonsearch.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hüseyin\IdeaProjects\TestNG\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC49B9-6892-48C4-A831-42A440574F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E317AAB1-478C-412D-9294-A8A635598F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ekran Resmi Dosya Adı</t>
   </si>
@@ -58,61 +58,12 @@
   </si>
   <si>
     <t>microphone</t>
-  </si>
-  <si>
-    <t>1-48 of over 60,000 results for "boots"</t>
-  </si>
-  <si>
-    <t>target/screenShot/amazon/boots.jpeg</t>
-  </si>
-  <si>
-    <t>1-48 of over 6,000 results for "ladies handbags"</t>
-  </si>
-  <si>
-    <t>target/screenShot/amazon/ladies handbags.jpeg</t>
-  </si>
-  <si>
-    <t>1-16 of over 1,000 results for "mobile phone"</t>
-  </si>
-  <si>
-    <t>target/screenShot/amazon/mobile phone.jpeg</t>
-  </si>
-  <si>
-    <t>1-48 of 126 results for "nutella"</t>
-  </si>
-  <si>
-    <t>target/screenShot/amazon/nutella.jpeg</t>
-  </si>
-  <si>
-    <t>1-48 of over 4,000 results for "pencil"</t>
-  </si>
-  <si>
-    <t>target/screenShot/amazon/pencil.jpeg</t>
-  </si>
-  <si>
-    <t>1-16 of over 4,000 results for "laptop"</t>
-  </si>
-  <si>
-    <t>target/screenShot/amazon/laptop.jpeg</t>
-  </si>
-  <si>
-    <t>1-16 of 204 results for "lcd tv"</t>
-  </si>
-  <si>
-    <t>target/screenShot/amazon/lcd tv.jpeg</t>
-  </si>
-  <si>
-    <t>1-48 of over 5,000 results for "microphone"</t>
-  </si>
-  <si>
-    <t>target/screenShot/amazon/microphone.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,14 +390,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
-    <col min="3" max="3" customWidth="true" width="46.42578125"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -464,88 +415,40 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
